--- a/API_automation/excelddtdriver/case/demo_api.xlsx
+++ b/API_automation/excelddtdriver/case/demo_api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\API_automation\excelddtdriver\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4E6CF1-B340-42AB-BF89-A478520F2456}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685C09E4-54EE-4D58-8737-10C9E890BDCA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -66,18 +66,9 @@
     <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
   </si>
   <si>
-    <t>{"uid":"346","date":"20180413","tokenid":"YWU4NWRkZmZlNE1UVXlNell3T0RZeE1qVTRNUT09"}</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
-    <t>{"seltime":"2018-06-26","uid":"346","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
-  </si>
-  <si>
-    <t>{"code":"000","msg":"\u8bf7\u6c42\u6570\u636e\u6210\u529f","data":{"istoday":1,"isdel":1,"data":[{"type":1,"name":"\u65e9\u9910","noeat":0,"hasRecord":0,"list":[]},{"type":2,"name":"\u5348\u9910","noeat":0,"hasRecord":0,"list":[]},{"type":3,"name":"\u665a\u9910","noeat":0,"hasRecord":0,"list":[]},{"type":4,"name":"\u52a0\u9910","noeat":0,"hasRecord":0,"list":[]}],"drink":[]}}</t>
-  </si>
-  <si>
     <t>t_002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -86,7 +77,192 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>http://qaapi.xiaoaijiankang.com/?method=dayCoursesgetRecipeRecord</t>
+    <t>encrypt</t>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=appindex3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=appindex2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"278","tokenid":"YWU4NWRkZmZlNE1UVXlNell3T0RZeE1qVTRNUT09"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=intelligentRecipeRecommend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=productList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=healthPlan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"278","source":2,"type":1,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"278","dishtype":0,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"278","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"278","date":"20180629","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=obProductList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"278","page":1,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=obProductDetail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=cartLists</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=addCart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"278","productid":5,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=myIndex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=getRecipeRecord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_012</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"278","seltime":"2018-06-29","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_013</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=lastRecipe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"278","pageid":"1","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=searchRecipe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"278","pageid":"1","keyword":"米饭","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=addRecipeRecord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"000","msg":"\u4fdd\u5b58\u6570\u636e\u6210\u529f","data":{"msg":"\u65e0\u8fd4\u56de\u6570\u636e"}}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"uid":"278","classid":"6","jlname":"碗（标准）","name":"糙米饭","recipeid":601,"seltime":"2018-06-29","share":2,"type":3,"unitid":67,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"spec" : "3","method" : "addCart","productid" : "23","count" : 1,"uid" : "278"}</t>
+  </si>
+  <si>
+    <t>000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +302,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,17 +342,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,23 +697,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="55.625" customWidth="1"/>
+    <col min="3" max="3" width="62.125" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="64.125" customWidth="1"/>
-    <col min="6" max="6" width="74.375" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="6" max="6" width="70.375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,11 +744,17 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -562,19 +767,22 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -585,17 +793,325 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>200</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -603,6 +1119,19 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{717C0916-0609-4D85-8519-115A4724FBAB}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6332F61F-9451-4C75-BDBD-BC207709790B}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{2FFEC94D-6347-4FD4-8CD5-402869C7FDA2}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{D7E8993A-9B39-4DBF-9250-96F6E140BFD2}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{EDD1CEAA-2292-4CF9-9E82-501C23B31154}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{35597EB8-EFA2-44D0-BB4E-FD22AE2014D0}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{6668FF01-346A-4CB3-B28F-B47A51E88321}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{F15E70B9-9102-4607-9436-3B008C368ED4}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{955487A3-D2BF-4A6B-8116-4FC9E75C884B}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{52825875-C0F6-49EC-A609-0CED78AE22E7}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{9C9525E2-1347-4FBE-AB0E-895F37A017C9}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{CD8AEF7B-20E2-4D3D-AAE8-F875C9FFA08B}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{6FB9CF83-A67C-435D-AB9E-64831F4747AF}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{2272E464-EE29-4BFB-88A5-5240BE65610F}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/API_automation/excelddtdriver/case/demo_api.xlsx
+++ b/API_automation/excelddtdriver/case/demo_api.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\API_automation\excelddtdriver\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685C09E4-54EE-4D58-8737-10C9E890BDCA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E40274-C6C5-44E0-8886-9E32BBC31F49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -259,10 +259,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"spec" : "3","method" : "addCart","productid" : "23","count" : 1,"uid" : "278"}</t>
-  </si>
-  <si>
     <t>000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"spec":"3","method" : "addCart","productid" : "23","count" : 1,"uid" : "278"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qaapi.maizicare.com/api/breakfast/daily_mark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token":"value"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -697,17 +722,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="62.125" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="57.875" customWidth="1"/>
     <col min="6" max="6" width="70.375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="5" customWidth="1"/>
@@ -984,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>59</v>
@@ -993,7 +1018,7 @@
         <v>200</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1112,6 +1137,33 @@
       </c>
       <c r="K16" s="5" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1132,9 +1184,10 @@
     <hyperlink ref="C14" r:id="rId13" xr:uid="{CD8AEF7B-20E2-4D3D-AAE8-F875C9FFA08B}"/>
     <hyperlink ref="C15" r:id="rId14" xr:uid="{6FB9CF83-A67C-435D-AB9E-64831F4747AF}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{2272E464-EE29-4BFB-88A5-5240BE65610F}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{C5B5D5B3-A8B5-4689-8AF9-A535B037CC83}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
